--- a/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
@@ -31,18 +31,12 @@
     <t>Source</t>
   </si>
   <si>
-    <t>SMS Response Template Test Text</t>
-  </si>
-  <si>
     <t>SMS Test</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Template Source</t>
-  </si>
-  <si>
     <t>AlertCode</t>
   </si>
   <si>
@@ -59,6 +53,12 @@
   </si>
   <si>
     <t>IcomTemplateID</t>
+  </si>
+  <si>
+    <t>SMS Response Template</t>
+  </si>
+  <si>
+    <t>Template</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,42 +426,42 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13710" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Text</t>
   </si>
@@ -31,34 +31,49 @@
     <t>Source</t>
   </si>
   <si>
-    <t>SMS Test</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>AlertCode</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>AppID</t>
   </si>
   <si>
     <t>Message Description</t>
   </si>
   <si>
-    <t>Testing Text</t>
-  </si>
-  <si>
     <t>IcomTemplateID</t>
   </si>
   <si>
-    <t>SMS Response Template</t>
-  </si>
-  <si>
     <t>Template</t>
+  </si>
+  <si>
+    <t>Sms Response Template Testing</t>
+  </si>
+  <si>
+    <t>SMS Testing</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMS Testing Text </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Text Add</t>
+  </si>
+  <si>
+    <t>Add Response text</t>
   </si>
 </sst>
 </file>
@@ -398,15 +413,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
@@ -426,42 +442,68 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Edit" sheetId="2" r:id="rId2"/>
+    <sheet name="Delete" sheetId="3" r:id="rId3"/>
+    <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
   <si>
     <t>Text</t>
   </si>
@@ -61,19 +62,25 @@
     <t xml:space="preserve">SMS Testing Text </t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Text Add</t>
-  </si>
-  <si>
-    <t>Add Response text</t>
+    <t>Query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMS Testing Text Updated </t>
+  </si>
+  <si>
+    <t>Modify Reason</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Updated Message Description</t>
+  </si>
+  <si>
+    <t>Delete Reason</t>
+  </si>
+  <si>
+    <t>Deleted</t>
   </si>
 </sst>
 </file>
@@ -415,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +435,7 @@
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,54 +463,115 @@
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -511,26 +579,93 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
   <si>
     <t>Text</t>
   </si>
@@ -81,6 +81,19 @@
   </si>
   <si>
     <t>Deleted</t>
+  </si>
+  <si>
+    <t>SELECT [Text]
+      ,[Intent]
+      ,[Enable]
+      ,[Source]
+      ,[AlertCode] as 'Alert Code'
+      ,[AppID] as 'App ID'
+      ,[MessageDescription] as 'Message Description'
+   ,[ICOMTemplateID] as 'ICOM Template ID'
+      ,[LAST_CHANGED_BY] as 'Last Changed By'
+      ,Substring([LAST_CHANGED_ON],11,18) as 'Last Changed On'
+  FROM [SMS_Template]</t>
   </si>
 </sst>
 </file>
@@ -116,9 +129,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,17 +670,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="13900" windowHeight="2080"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
-    <sheet name="Queries" sheetId="4" r:id="rId4"/>
+    <sheet name="Invalid" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="26">
   <si>
     <t>Text</t>
   </si>
@@ -47,53 +46,55 @@
     <t>IcomTemplateID</t>
   </si>
   <si>
+    <t>SMS Test1</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Testing Text1</t>
+  </si>
+  <si>
+    <t>Modify Reason</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Updated Message Description</t>
+  </si>
+  <si>
+    <t>Updated Testing Text1</t>
+  </si>
+  <si>
     <t>Template</t>
   </si>
   <si>
-    <t>Sms Response Template Testing</t>
-  </si>
-  <si>
-    <t>SMS Testing</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMS Testing Text </t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMS Testing Text Updated </t>
-  </si>
-  <si>
-    <t>Modify Reason</t>
-  </si>
-  <si>
-    <t>Modified</t>
-  </si>
-  <si>
-    <t>Updated Message Description</t>
-  </si>
-  <si>
     <t>Delete Reason</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>SMS Respons</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>TestSMS</t>
+  </si>
+  <si>
+    <t>SMS Test</t>
+  </si>
+  <si>
     <t>Deleted</t>
   </si>
   <si>
-    <t>SELECT [Text]
-      ,[Intent]
-      ,[Enable]
-      ,[Source]
-      ,[AlertCode] as 'Alert Code'
-      ,[AppID] as 'App ID'
-      ,[MessageDescription] as 'Message Description'
-   ,[ICOMTemplateID] as 'ICOM Template ID'
-      ,[LAST_CHANGED_BY] as 'Last Changed By'
-      ,Substring([LAST_CHANGED_ON],11,18) as 'Last Changed On'
-  FROM [SMS_Template]</t>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
 </sst>
 </file>
@@ -129,12 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,20 +436,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,33 +475,58 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -514,19 +537,21 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.08984375" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,42 +577,42 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -597,15 +622,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,36 +664,42 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -670,25 +709,120 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="240" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="13900" windowHeight="2080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="Invalid" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:P25"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="30">
   <si>
     <t>Text</t>
   </si>
@@ -95,6 +96,18 @@
   </si>
   <si>
     <t>45</t>
+  </si>
+  <si>
+    <t>Ascending</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -142,6 +155,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -190,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,7 +241,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,22 +450,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -501,7 +517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -525,6 +541,26 @@
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -540,18 +576,18 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.08984375" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -628,17 +664,17 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,7 +706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -715,18 +751,18 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -793,7 +829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>

--- a/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="15060" windowHeight="1850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Invalid" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P25"/>
+  <oleSize ref="A1:J4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="26">
   <si>
     <t>Text</t>
   </si>
@@ -96,18 +96,6 @@
   </si>
   <si>
     <t>45</t>
-  </si>
-  <si>
-    <t>Ascending</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>TE</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
 </sst>
 </file>
@@ -155,9 +143,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -206,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,7 +226,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,22 +435,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -517,7 +502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -541,26 +526,6 @@
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -576,18 +541,18 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.08984375" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -660,21 +625,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -751,18 +716,18 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -797,7 +762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -829,7 +794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>

--- a/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="15060" windowHeight="1850" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3405"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Invalid" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J4"/>
+  <oleSize ref="A1:O9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="30">
   <si>
     <t>Text</t>
   </si>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>45</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>ad</t>
   </si>
 </sst>
 </file>
@@ -143,6 +155,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -191,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,7 +241,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,20 +452,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -502,7 +517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -541,18 +556,18 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.08984375" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -625,21 +640,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -710,24 +725,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -762,7 +777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -794,7 +809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -824,6 +839,26 @@
       </c>
       <c r="J3" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3405" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,11 @@
     <sheet name="Invalid" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
   <si>
     <t>Text</t>
   </si>
@@ -92,9 +96,6 @@
     <t>Deleted</t>
   </si>
   <si>
-    <t>Updated</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
@@ -108,6 +109,24 @@
   </si>
   <si>
     <t>ad</t>
+  </si>
+  <si>
+    <t>ActualSMS</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>Actual Test</t>
+  </si>
+  <si>
+    <t>Eldorado</t>
   </si>
 </sst>
 </file>
@@ -452,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,28 +512,28 @@
     </row>
     <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -553,7 +572,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,34 +620,34 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -640,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,28 +707,28 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -832,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -843,22 +862,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3405" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -111,22 +111,22 @@
     <t>ad</t>
   </si>
   <si>
-    <t>ActualSMS</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Chat</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>Actual Test</t>
-  </si>
-  <si>
-    <t>Eldorado</t>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>8055</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t>Gold</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,30 +510,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -619,34 +619,34 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -659,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -667,6 +667,7 @@
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -706,29 +707,29 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>

--- a/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19485" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Invalid" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:P24"/>
 </workbook>
 </file>
 
@@ -471,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19485" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Invalid" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P24"/>
+  <oleSize ref="B1:L20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
   <si>
     <t>Text</t>
   </si>
@@ -107,22 +107,25 @@
     <t>ad</t>
   </si>
   <si>
-    <t>Make</t>
-  </si>
-  <si>
-    <t>8055</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>Letter</t>
-  </si>
-  <si>
     <t>Gold</t>
+  </si>
+  <si>
+    <t>SMSTest</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>190493</t>
+  </si>
+  <si>
+    <t>appsource</t>
+  </si>
+  <si>
+    <t>Letter description</t>
+  </si>
+  <si>
+    <t>appsourc</t>
   </si>
 </sst>
 </file>
@@ -221,7 +224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,7 +259,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,30 +509,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -568,14 +571,14 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="7" max="7" width="26.140625" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -614,36 +617,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>34</v>
+      <c r="J2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -655,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,36 +705,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/SmsResponseTemplateData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215E3CB0-F459-46DB-835E-5AE9CA1368B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,11 @@
     <sheet name="Invalid" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="B1:L20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
   <si>
     <t>Text</t>
   </si>
@@ -119,19 +124,16 @@
     <t>190493</t>
   </si>
   <si>
-    <t>appsource</t>
-  </si>
-  <si>
     <t>Letter description</t>
   </si>
   <si>
-    <t>appsourc</t>
+    <t>DB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,9 +259,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,6 +311,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -467,23 +503,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -520,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
@@ -529,13 +565,13 @@
         <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -567,25 +603,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -628,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
@@ -637,7 +673,7 @@
         <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>32</v>
@@ -655,25 +691,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -716,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>32</v>
@@ -743,25 +779,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -828,7 +864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -860,22 +896,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>28</v>
       </c>
